--- a/MainTop/15.07.2025 новые мужские Озон/исправить.xlsx
+++ b/MainTop/15.07.2025 новые мужские Озон/исправить.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\15.07.2025 новые мужские Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447187B-1F9E-4101-94F6-BE76A75EAA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B561A2A-64D7-4716-B39C-22E91AF82240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{563EAC33-9817-4FAA-927C-0F1A4483062F}"/>
   </bookViews>
@@ -447,12 +447,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
